--- a/BrazilianMaturities.xlsx
+++ b/BrazilianMaturities.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuyuansheng/Desktop/School/Fin Lab/WB Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panqian/mit/15.453 Financial Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB72D4C7-329F-A64D-95B3-0FFD81E057D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE24370-67AF-EF48-9F7B-32DAB4CE04C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brazil corps_1609975969146" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>BR Banco Brasil 5 3/8% due 21 Quoted Price Bid</t>
   </si>
@@ -85,9 +96,6 @@
     <t>BR Banco BTG 5 3/4% due 22 Quoted Price Bid</t>
   </si>
   <si>
-    <t>BR Banco Btg 5 1/2% due 23 Quoted Price Bid</t>
-  </si>
-  <si>
     <t>BR Banco BTG 4 1/2% due 25 Quoted Price Bid</t>
   </si>
   <si>
@@ -109,9 +117,6 @@
     <t>BR Banco Bradesco 3.2% due 25 Quoted Price Bid</t>
   </si>
   <si>
-    <t>BR Rumo 7 3/8% due 02/24 Quoted Price Bid</t>
-  </si>
-  <si>
     <t>BR Rumo 5 7/8% due 25 Quoted Price Bid</t>
   </si>
   <si>
@@ -196,38 +201,43 @@
     <t>BR Embraer 6.95% due 28 Quoted Price Bid</t>
   </si>
   <si>
-    <t>BR Fibria Overseas 4% due 25 Quoted Price Bid</t>
-  </si>
-  <si>
     <t>Debt Name</t>
   </si>
   <si>
     <t>Maturity</t>
+  </si>
+  <si>
+    <t>BR Banco BTG 5 1/2% due 23 Quoted Price Bid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR Rumo 7 3/8% due 24 Quoted Price Bid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -235,7 +245,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -243,7 +253,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -251,35 +261,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -287,7 +297,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -295,14 +305,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -310,14 +320,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -325,7 +335,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -333,15 +343,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -690,48 +707,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1020,27 +1037,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="119" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1065,7 @@
         <v>20210115</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1056,7 +1073,7 @@
         <v>20220126</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1064,7 +1081,7 @@
         <v>20221010</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1072,7 +1089,7 @@
         <v>20230119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1080,7 +1097,7 @@
         <v>20230419</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +1105,7 @@
         <v>20240320</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1113,7 @@
         <v>20250115</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1104,7 +1121,7 @@
         <v>20210122</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1129,7 @@
         <v>20211221</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1120,7 +1137,7 @@
         <v>20220319</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1128,7 +1145,7 @@
         <v>20220806</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1153,7 @@
         <v>20230124</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1144,7 +1161,7 @@
         <v>20230513</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1152,7 +1169,7 @@
         <v>20250124</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1160,7 +1177,7 @@
         <v>20291121</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1168,7 +1185,7 @@
         <v>20240315</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1176,7 +1193,7 @@
         <v>20250119</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1184,39 +1201,39 @@
         <v>20250131</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>20210116</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>20220301</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>20230127</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>20250127</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1224,7 +1241,7 @@
         <v>20201220</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1232,7 +1249,7 @@
         <v>20201220</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1240,279 +1257,272 @@
         <v>20220928</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>20230131</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>20250110</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>20290215</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B30">
         <v>20240209</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>20250118</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>20280110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>20210127</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>20210523</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>20220117</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>20230520</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>20240317</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>20250127</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>20260523</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>20270117</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>20280127</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>20290201</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>20300115</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>20310103</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>20400120</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>20410127</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>20430520</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>20440317</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>20490319</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>20210130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>20230415</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>20240429</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>20271024</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54">
         <v>20440416</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B55">
         <v>20500603</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56">
         <v>20230916</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57">
         <v>20250615</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58">
         <v>20270201</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>20280117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>20250114</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A2:A60">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
@@ -1521,6 +1531,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100042343C4DBE96F4AA6569BB692C364DF" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88923caf6b32bf3eda35389e4b338948">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dabe7fbb-202d-4f5f-b842-d2380ba27fd5" xmlns:ns4="a8b85fe8-3dea-468d-a489-413ddfddb008" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16e90585c931da2b92eaca2713092dbe" ns3:_="" ns4:_="">
     <xsd:import namespace="dabe7fbb-202d-4f5f-b842-d2380ba27fd5"/>
@@ -1731,36 +1756,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC647BAF-8D18-46A7-9285-9AC6BEB969E6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EFEC97C-6DA5-4927-9EB7-6B050E50BB81}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dabe7fbb-202d-4f5f-b842-d2380ba27fd5"/>
-    <ds:schemaRef ds:uri="a8b85fe8-3dea-468d-a489-413ddfddb008"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1783,9 +1782,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EFEC97C-6DA5-4927-9EB7-6B050E50BB81}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC647BAF-8D18-46A7-9285-9AC6BEB969E6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dabe7fbb-202d-4f5f-b842-d2380ba27fd5"/>
+    <ds:schemaRef ds:uri="a8b85fe8-3dea-468d-a489-413ddfddb008"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>